--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H2">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I2">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J2">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>980.35672722988</v>
+        <v>1217.568649495659</v>
       </c>
       <c r="R2">
-        <v>8823.21054506892</v>
+        <v>10958.11784546093</v>
       </c>
       <c r="S2">
-        <v>0.5015759194124947</v>
+        <v>0.4134861500146564</v>
       </c>
       <c r="T2">
-        <v>0.5015759194124947</v>
+        <v>0.4134861500146565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H3">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I3">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J3">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>129.62452200676</v>
+        <v>185.6909225899766</v>
       </c>
       <c r="R3">
-        <v>1166.62069806084</v>
+        <v>1671.21830330979</v>
       </c>
       <c r="S3">
-        <v>0.06631926624062458</v>
+        <v>0.06306061239849031</v>
       </c>
       <c r="T3">
-        <v>0.06631926624062458</v>
+        <v>0.06306061239849033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H4">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I4">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J4">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>299.352674339004</v>
+        <v>878.0430326555663</v>
       </c>
       <c r="R4">
-        <v>2694.174069051036</v>
+        <v>7902.387293900098</v>
       </c>
       <c r="S4">
-        <v>0.153156589524751</v>
+        <v>0.2981832960879287</v>
       </c>
       <c r="T4">
-        <v>0.153156589524751</v>
+        <v>0.2981832960879287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H5">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I5">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J5">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>155.2409658136187</v>
+        <v>222.3615030665845</v>
       </c>
       <c r="R5">
-        <v>1397.168692322568</v>
+        <v>2001.253527599261</v>
       </c>
       <c r="S5">
-        <v>0.07942530305113225</v>
+        <v>0.0755139366084689</v>
       </c>
       <c r="T5">
-        <v>0.07942530305113227</v>
+        <v>0.07551393660846892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H6">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I6">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J6">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>28.20007645333667</v>
+        <v>18.33506017592455</v>
       </c>
       <c r="R6">
-        <v>253.80068808003</v>
+        <v>165.015541583321</v>
       </c>
       <c r="S6">
-        <v>0.01442789025842865</v>
+        <v>0.006226583975836121</v>
       </c>
       <c r="T6">
-        <v>0.01442789025842865</v>
+        <v>0.006226583975836122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H7">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I7">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J7">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
-        <v>3.728664606756666</v>
+        <v>2.796272917523333</v>
       </c>
       <c r="R7">
-        <v>33.55798146081</v>
+        <v>25.16645625771</v>
       </c>
       <c r="S7">
-        <v>0.001907681486104868</v>
+        <v>0.0009496139076313303</v>
       </c>
       <c r="T7">
-        <v>0.001907681486104868</v>
+        <v>0.0009496139076313305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H8">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I8">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J8">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>8.610914852111</v>
+        <v>13.22222927426689</v>
       </c>
       <c r="R8">
-        <v>77.49823366899899</v>
+        <v>119.000063468402</v>
       </c>
       <c r="S8">
-        <v>0.00440556729399331</v>
+        <v>0.004490267287591816</v>
       </c>
       <c r="T8">
-        <v>0.004405567293993311</v>
+        <v>0.004490267287591816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H9">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I9">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J9">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>4.465524622862445</v>
+        <v>3.348485969332111</v>
       </c>
       <c r="R9">
-        <v>40.189721605762</v>
+        <v>30.136373723989</v>
       </c>
       <c r="S9">
-        <v>0.002284678174953924</v>
+        <v>0.001137145385938394</v>
       </c>
       <c r="T9">
-        <v>0.002284678174953924</v>
+        <v>0.001137145385938394</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H10">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I10">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J10">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>216.1587489455334</v>
+        <v>196.1189291225768</v>
       </c>
       <c r="R10">
-        <v>1945.4287405098</v>
+        <v>1765.070362103191</v>
       </c>
       <c r="S10">
-        <v>0.1105924203200653</v>
+        <v>0.06660196201789664</v>
       </c>
       <c r="T10">
-        <v>0.1105924203200653</v>
+        <v>0.06660196201789664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H11">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I11">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J11">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>28.58089686273333</v>
+        <v>29.91002183015667</v>
       </c>
       <c r="R11">
-        <v>257.2280717646</v>
+        <v>269.19019647141</v>
       </c>
       <c r="S11">
-        <v>0.01462272785342726</v>
+        <v>0.01015743940066839</v>
       </c>
       <c r="T11">
-        <v>0.01462272785342726</v>
+        <v>0.0101574394006684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H12">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I12">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J12">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>66.00423884625999</v>
+        <v>141.4301028194824</v>
       </c>
       <c r="R12">
-        <v>594.03814961634</v>
+        <v>1272.870925375342</v>
       </c>
       <c r="S12">
-        <v>0.03376947988920346</v>
+        <v>0.04802964394264598</v>
       </c>
       <c r="T12">
-        <v>0.03376947988920347</v>
+        <v>0.04802964394264599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H13">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I13">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J13">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>34.22906379210222</v>
+        <v>35.81670723664656</v>
       </c>
       <c r="R13">
-        <v>308.06157412892</v>
+        <v>322.350365129819</v>
       </c>
       <c r="S13">
-        <v>0.01751247649482068</v>
+        <v>0.0121633489722469</v>
       </c>
       <c r="T13">
-        <v>0.01751247649482068</v>
+        <v>0.01216334897224691</v>
       </c>
     </row>
   </sheetData>
